--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/38_Iğdır_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/38_Iğdır_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8656554-AE61-463D-8133-A310DDD458D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E78C2B0-0CB5-48B0-B3EA-D9AC8EF15980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="683" xr2:uid="{C99E0C8E-3F41-4019-8071-AFF4507C7842}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{C7607781-3270-4F08-804D-A6C74AD044FB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -993,14 +993,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{690B802C-871E-43DE-BEB3-FBAB4B429C2F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4588030E-A743-4390-906D-48BBDCE058C5}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{611DA4C4-66AE-4906-822F-EF59821B833A}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{DCEA3E06-EC82-48DA-89C3-C99DAB8776AE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A6C04E3E-43B9-4BC4-BB3C-A7C563212057}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{07696CD4-0BEA-4694-A0C2-07F731D84F24}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F09BCD87-B9A5-41B4-998E-2C80B76C3AC1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{20A50C4B-7F14-44C0-96EF-571F28C62B89}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5AE526D4-C25C-4386-9D3C-5873C5E78885}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D9E5A388-B743-4C9F-B618-AF5B48BA5F61}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{608DF7E0-0833-4E12-84C3-4768B9043097}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{8016776A-4DF2-4AAD-9C71-5613220D076A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5E68B860-66A3-4EFC-A642-6C48C72FF973}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C1368DF5-A3C8-4B37-A314-3F14DFEA8CD0}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{D734E9CA-8AD8-4B2D-A597-8481C1FC71A3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{9817FFDD-B14B-4F15-9817-7ECF10E3DA14}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1370,7 +1370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F477A143-DCE4-4B47-9CC4-127369D8B48E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49858A63-63EB-4ACF-A435-572AC96A9833}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2628,17 +2628,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36DE2A80-54A1-47A7-962A-81DF68EE3521}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6313CE49-6778-4643-9708-C17B24940039}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21FFA477-97EA-4480-8758-9088528296C2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8DAEAFBC-5EFB-478F-8F08-B962DF2DEB17}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FAAD62BB-722D-4FBA-B43D-CAA0EFACAFB2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6780CC39-F2DA-4923-A26F-EE2B2311EEFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C181BC82-02F8-49C5-AFF2-914D4A820684}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68462E18-841A-4868-8AB9-BA42F41F5CF6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{214DBD33-0AEB-4367-AE90-8497F6EA2A5F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D7C9798D-2EFB-411D-8523-B88FC79AC179}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21CFDA0B-0851-44F1-A439-D55786A6A047}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0A64BA8-5BD6-436B-AFB2-74D2CC67A4E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{038C1F36-06F9-4F23-8D3C-60567C0CE356}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3DC95918-340D-4947-AC5E-78B3395DA8E7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7EB489D0-56F3-4958-89B1-0C6A8AD56A58}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82F00C6D-5E61-4E53-8FF0-DCD2858CB9BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC7223AB-7B01-46C0-ADDF-CD32E24B706D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F240A28-68DD-435C-B305-050C8F780461}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CEF0BAD-5819-47B8-ADB8-2643E0614E75}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C0F542D7-FA95-41DF-8D96-0A69FBD7DEA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{817662A8-C6CF-4EE4-93CC-8B3EF3ADBF6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BE0F752-B031-4AE6-9F10-478E148295A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B654C3C3-9F22-4F06-80B7-A68632D18B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F697C989-71BE-4629-9AF8-CA9F2034C447}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3866,17 +3866,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88BDACE6-5295-420F-9B4A-3ABC1D41262E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E8ED9CB-3F66-4C80-AC2C-5DD73D7CEA42}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0A492BA-B339-46A3-9522-9A143E33A66F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0BE22A0-60B8-41ED-8ECD-68CA6DB7A2AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB445179-82EA-4394-84DC-249F50CB6393}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95C4600C-ADA3-4FF7-8D96-72E3E8ECBC77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1146FD2-34BB-429E-AACF-FD453AAD0DB1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26354CDD-9AC1-4A87-A3F0-D50F800B93A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{45C4B241-B7C6-45A9-927C-E95DB794BCA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1E507DD0-F395-4841-B719-C6A723251563}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05E3350E-AEB4-4AC6-8C1B-20CF2E3E2F12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{043FC07D-39D8-4594-8E35-CA998E6C9539}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B2A680A-CD95-438F-90E2-0E31E1F91908}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0A3F121-CE93-4653-8A80-8F653B6FBA9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FDE4E08B-F4E6-464F-9FB4-E9461568AAFD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3609E1CC-6635-4C7C-8C2D-6B46784FC91E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C6D122E-AE45-47D9-983F-EB91B3FEEF47}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92756EE5-017A-43BA-9A70-BEFB4C3E41F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EB7CB4A-57A6-4E4E-BF3A-B58938CA592A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{03B45989-C940-4D39-BC66-CE70029C77C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8010F151-97FB-48B7-A857-A1938C0A4C0B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30C0FD05-6872-4DFD-9888-48E8EC066B41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3889,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7CD2AD-B789-4F49-B5F4-7563D825584F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFC69EE-5435-4BAB-88C1-BCD601F1950A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5092,17 +5092,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A939204E-6280-4BAD-A44E-0A346818B8C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F57AE675-0CAF-4A60-BBF9-D0F679B764EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8EBE461B-7078-468D-95DA-26CAB4E7ED57}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{582FBE35-D857-4A05-8005-194F08A95266}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3784546-D88D-44EB-B401-8EB33C995FAF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6DCA727E-363D-4109-BBAC-C0F0198E8010}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B70F503-8D36-486D-A909-3EBA026B4A75}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA56D779-5539-43C9-9E01-4AD282BE0960}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{49F31143-AE59-4B29-BE64-C4FCA923C62E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23B0D59A-E889-4C82-A446-B646082A8C5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6A96F16-5031-413B-943E-90BC5F2B717B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08FB8C49-8D73-4325-842C-3991319D075C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23ABC7DE-DFD2-4C1E-B258-D121C06501BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9181986-FCCB-42AF-B453-48F4595B6778}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23BA859F-1502-47A1-AF3C-618EEE65FE80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A75BC8F3-E9F8-46CF-936F-6DFAECBFB468}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C022CF6-0BC2-4E67-8E84-0790F0817B36}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83943F36-E1BB-4218-9758-D321F657A49C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{236F45CE-24EA-45F6-A5DA-FD13F771E6D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD6E3149-86A4-43ED-B587-0BA3AFE6F958}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{42955F81-BD4D-4C5D-9984-6A7FFC9895AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B6BC84E-2A0F-44B6-B336-70554733D4CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5115,7 +5115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44985189-CA72-4501-A1EF-BEA795F11A48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A35172-4D52-4CE2-BA12-1ABF4CCF297F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6312,17 +6312,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CB180B7-A52A-4B61-99CA-99E94C1DF63E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33F6E07A-C3C8-493E-9278-AC8E38218290}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27438A3F-A467-4560-A001-7FAA579736A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{088E3775-81CC-4D84-A6EE-FD71F0C70153}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43BA4467-AF6C-4BCF-A223-8122B68FE6FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77FFC7DC-42BD-412C-A1AA-C19B49E78601}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8B74BF7-25E6-4DEC-BEE8-DDA47D3AD32C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D17F94F8-3B8D-4A5D-ACFB-98AF527F683F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A46EA97C-0E5F-4D75-83AA-A5E11458F328}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{603023F3-8FC3-42CB-ABA5-413407A47FC3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41D649C5-381A-4D4B-91EA-C9DFA3A341DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42AC58A0-288A-49D4-B77E-1798304ABD06}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9554582A-247C-4540-9587-2F5A08FA9D10}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3A1184B3-2ED6-4A10-8D4E-5DDD98836D43}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E4DF712-1B36-4606-AA96-C260D8C4FEE4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F788FFA3-FB20-4EDF-BA62-66F81AD70741}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4578E671-0890-4EE7-9E00-2A632C5E7900}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B935362A-E220-4B52-986B-6343EDC0E5B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AC69B75-C497-4331-B6B9-9C2192CC83EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9A322619-F0B8-4677-A050-26596AFB2209}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E22F6346-1444-4CEA-9296-64A92BC5CB2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4AA55B8-3A9A-42C3-8797-BD29E91666E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6335,7 +6335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B71979E-E7F0-4042-BEA8-960EC3ED027C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C577A60-CB6C-4AAB-9CE7-32FF5B069613}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7558,17 +7558,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CFA0ECB-16CC-4B0A-B5F2-388F1A8927D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03465C3C-4A05-4574-9825-D69B13B1D960}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23DF17AA-E88E-401F-8D08-87C09690081E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{748A954A-AEE6-4CDE-A0B0-101DD9D7C147}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D287B6D5-4D7D-4D06-8943-8C0B71392270}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B299DF19-E781-4587-B277-5D18888CA93C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA32AA3F-CF1C-47ED-A6A1-B582A0D72866}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{022CCC98-18A3-4215-B7ED-F26B50E6D1FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BFBA5861-4B7A-4EE6-A6D2-B4B2ECC3CF5B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3DDDE64A-4F0C-42ED-B058-3DF1F0122306}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F36EE4A9-A69B-4CD6-9E96-C2E6790694E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EDD30D25-EA9B-4663-865F-4E20DA5F6CAF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{680C387B-0CE6-45BE-A329-2C676138AAC0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7523AE6E-81D1-451A-B1B7-029FA22B1DD6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F76EEB1-D2BA-4AF9-8BF7-005E427D9385}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5743C1D4-CCC9-4224-B75F-44D4DE00D199}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBEB82F0-41D9-4536-9ED2-4ACDB6A911E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5CA424A-C47B-4BFE-BC5F-616EAB7919B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50D6F308-2521-40DE-9EEC-CE7BC89D89C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{550AB744-D664-406A-B00A-20BBB3D969B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AD5EAB4E-7586-419B-BE4D-622FFDF89DC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB294747-030C-4C58-A257-455373B7D267}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7581,7 +7581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5D4D81-60C0-4FED-83D7-6A6AD4284FD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27333D0D-D73A-4918-93AE-94718FD7BA64}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8804,17 +8804,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59540C71-DC7D-494E-91B1-55C97CBFE476}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B28C1278-7B4A-43B9-82E4-0828C92B848A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F96AA0FC-FFB8-499C-B706-FE54D239D2F7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3ADA851-C695-47F8-B336-7D93472236A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28FDE791-395C-4635-A91E-29F91BFE6932}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{23E7280E-4462-4C57-9A97-548F7D57742A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02BBA07F-C487-43F4-ACC9-59B0B26386B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FF4ED99-93F3-4BEA-9C18-BE133DE0F965}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{444B2F87-E527-4448-B286-C11EC483F684}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{42AFDB43-7D4F-472F-9280-3C7BF6BDDB9C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C74F81C0-192D-4B94-AC05-DF7BBBB95F69}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{376C6069-B177-4EBB-8E15-9EF709003A9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93C13B2B-C0BD-46AF-8E1D-EA3FAF164C0D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7232C145-5DF6-419C-BD0E-00E026559C55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB5AFFE1-D93A-46EF-BD22-E31EA935663D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1FECF44-836D-42EB-B910-0FB20CA58428}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AEA0881-1A33-404B-A85B-B2205EB03856}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{036E77D8-204E-428F-8AE7-43B39CE7925D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24F2224C-0FB7-4BDC-99D9-C38EDD346263}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1FFD3DFD-12C0-49A9-AB13-026A435C0D02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1F751E22-4822-4AB7-AACA-1EE45EF93D22}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63F47ECE-570A-4684-AB74-B9971C6811A6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8827,7 +8827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49AADEF-F969-440A-92E0-E762E386941F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFDED18-29F7-4C16-93DD-0343EC602492}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10050,17 +10050,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6EB3A196-F219-41D1-8FDA-5454335346C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA483CED-540F-44C5-8B77-912152213E69}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA81F1DA-C213-42BE-BFCF-66EF7ECF58E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65420BF5-1E25-4D25-AEB6-02367E49AE47}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91F96162-0766-4B26-BE2F-0583839AEE20}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E31E34F6-3624-476E-8F22-C8932372CCCC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA4349AE-D391-49F8-A025-50CC7AAAA348}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A00C380-08AA-45B3-B7D0-9DFD02B5EFF2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CCCB88D9-9C03-482A-8B1F-281CC39C71FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E49892C1-DDC3-46EE-AC67-89F8A538B710}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{535A2093-7B8D-4910-A33C-20740289658A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B48422B-AF8D-49C8-ABF2-F2CDC12413E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A22BF830-FDD3-4067-A6A2-176CF39432E8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0942F3B-E644-42F9-83CD-398B0E6994D4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06A47886-27B3-40A0-AD06-388AC1F982F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F92AF4E-501C-4359-A0F6-82107E74FF20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{603A476D-F24A-47E2-8985-E3E151F227B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C22EBD1A-A1B4-41F0-80CA-D31242E02FC6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A976A0C2-9FD6-4033-87B2-E8CEEBC116B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E4838B47-912D-4F4A-A2D2-46C01C2C4EA9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7DBBFB57-E9B4-4B13-9757-7E9B885AEB5F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90AA0328-E5E8-4BF6-A3CE-A84E28723FB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10073,7 +10073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15D8B7-D87C-41E3-A2DA-2A1FEC62B622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB9FAE1-449F-424F-9188-7FD6117B79BC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11296,17 +11296,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2373D5F-9867-4CDE-BF00-E5ED5E2C15C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C8CB989-9FAE-4306-B943-FC4A7280C4A7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F80A5665-4B02-4CA8-A64D-8F010384E8B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB39A78A-6219-4924-8B1A-026A7154F358}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A3EEA0C-39DD-4015-BBE4-81D5B0BFBCC2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8BA13F2-2116-4538-B814-EAA6401A597E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{568E4F07-E0EC-4458-9A90-77898BAB5478}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9EA566A-9700-4280-96C0-15BF914CBE24}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{701B6B01-B04D-49D0-8828-4C37EE6286BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2412B624-1040-4956-85DA-6C0AFA06E3E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7263EE41-EBAC-440D-B710-BA3FBA2F42A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3BA2A5C-EC3A-4EB3-A1FA-BDBDE0E533B9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E46B6B1B-F660-44C9-9A9D-40E1141C7812}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FEDFA421-8711-4253-B9FB-681BA9827A79}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89D1C353-A18C-46D8-93DE-C83780FA20A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78555FEB-B71F-470A-97FC-52069D1267C5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06A156F3-0CD3-4F54-B46F-5EA3F0EEF2B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5085BA64-8305-4DE1-84D1-15CDD5AF7EDD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D5789AD-BD3B-4C34-BE96-453C17A174B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EC46DC56-A9C8-453B-B1A2-0417125CF4C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D2D0C557-8D08-4C69-8026-C1CD30A82854}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48367EBE-70B2-477D-A299-685E787E818C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11319,7 +11319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABBB53E-9476-498C-BA56-A579FD1F564D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF6F96-1CE9-4736-9E62-FBA4FC07CF89}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12538,17 +12538,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7AF5CD6-C9EC-4BF4-897D-9941276B01FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{339909C9-FBF7-4E7F-AADC-04C7AD169864}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82F80133-A049-4818-AA97-FE86C7104102}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F540AA2-A59F-446B-BFA8-7EFFE0041428}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26B512BC-01B2-48A8-8921-561E070CDD78}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50D7EAAD-55BD-47B5-B57D-922269D3ED26}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F70BC34-CD4F-427A-B494-521D375FCEBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{882A09E0-BD17-4B20-89A1-23BDC7E55CB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6A921821-2E1E-49CE-B442-5477DEA6387E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B23986E8-F795-4215-A4D2-6A7FFAD019B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95AFC92A-050E-40C6-9196-ECEB976C118D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0B51B31-E8FC-450F-AED6-A1E6A8E569D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{500B1EFA-3459-404C-9DA8-A3B3D9427FFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6638434F-6CA1-4B45-B606-270F424A86A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BECDCBC8-7766-49EB-B3AF-5ABC63FAE920}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{885CF9F7-F545-4893-B937-DDA45B7B98FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{23E2AAA0-DC6D-4B81-BBB5-159AAA7D83C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FB9D8C6-2B23-418F-88C4-38E5C1D5881C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7387CFE9-EF22-4772-97EE-F8B5B5E6D1D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C4E9EC43-B470-42E8-B254-4DE1AC4E5F53}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{736EF555-B0D5-4C54-BFBB-2E9BA061EC52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85897361-8F10-4E60-BAC4-8C1987BC70BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12561,7 +12561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE32E656-631D-4D30-9786-D60FD06A35D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A432DE-65A9-4EB3-8DD6-F9D98DE2896A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13780,17 +13780,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B68DC018-81BF-4578-B793-5EE91FC35F7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05590180-F9AA-437F-8BA3-A56771EF834E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{571FEB8C-3D43-40FA-8E8E-94AF3FD33352}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9AF11DD9-53D7-4DCA-9EE8-DE6218B2DB38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4071BB8-827F-45DD-A032-567E331CDAF6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75058EED-7EB3-4273-B71F-D3987655C5E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FBB2483-329C-47A1-880A-26DE52D9FA78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{573AB28C-9D5A-4EF1-9DCA-453E687B3CFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AD841635-BDFF-4114-A6BE-012A6BBC81D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F968A2BF-E149-468F-94CD-87E8C4AB1B25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2807DA5-B6F0-4CEE-A5B0-33E09C50C678}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{632DAD34-CE6F-4DA8-A46C-FAE564F4B295}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07561507-EF54-4C34-A095-5FECBD1428FA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4085D9C0-9598-4103-B8D4-AFEB957D2AE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FFDE0F08-4F09-47E9-AF97-4BE0A6EB7F9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B540CF28-A73E-48E7-A625-7BF92921A578}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{418141EB-C3B6-438D-B1AC-6C4126F41C14}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67A45C17-A3C4-4777-8A51-4120BBE086C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F4BF14B-8D2F-4499-85ED-7B23830D91E3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F30D3569-3937-4E65-855B-2C19300B4AEC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{69082F3D-A319-4767-B241-90D433C9074E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{771D9B1F-8EEA-4CC2-91E8-C6A9AB2D0E71}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13803,7 +13803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6980CD9-68C5-46CF-A047-D2E7C31D38F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722B73EE-FEA7-42C3-A0F6-19ECABF86871}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15022,17 +15022,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEEE9002-7367-4D40-AE52-6C3218D155B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF266D54-474F-4702-B892-ECAFA5059EF6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E0BEC53-8312-4743-A453-3EB092A885D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C97DB17-A8C5-44AA-B7F7-2095978D5492}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C29D8E45-CBBD-47FE-8E90-958E7B4295C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC86173F-E534-471F-BB65-1EF4ADC36624}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEC762C8-8618-4ADD-96D6-0325B75CDA87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06CBA93F-8978-4FEF-B8DA-B44300E55554}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0331F63C-66BE-4A69-9164-B474F42C1901}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF38F61F-7C4A-430A-AD81-8EFC64297E12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0904CD6-8659-4022-A80F-4314137C4BBA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9FA8A99-8C0C-481B-8134-948A32888A1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A33B8EE-E0C2-4B79-8B32-2597299ECED0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{874B4944-F200-49FA-9770-71D13ABF5606}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4DD62EA3-98DB-4B8B-9BF5-699C35A6C813}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7D1DEFE-E939-460C-AEB3-59A57638CC4D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D13E2AC7-3562-4601-B049-CF514F078165}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A70C9D5-5B4C-4585-A9EF-0158AFB88F45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD68CD02-84C4-4704-A196-7DD47BCDDF23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E53A43FB-6357-4041-BEC6-537437821CB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{87B3535C-A6CC-4DEF-9A9D-9BE4F85DF177}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC0F0593-F52B-4563-BBB3-10A4DFD7D2A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15045,7 +15045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EF0E4D-80E4-4212-8165-5B3F922CFA31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109734DF-6DF3-4E38-A41E-EBE705702D55}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16260,17 +16260,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B83209A8-75C7-4C4F-B22E-92BAB6E27041}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0D353CD-B16B-4221-992F-B40AB718A19E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C416827E-FFCF-4273-8EA9-EEE5DE41325C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A3E06AC-1FDA-415D-83C4-8E152A133B4E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3870C228-6FC4-4870-B8A2-DABC722572EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDCB238D-91BC-4192-993E-3AEB379C6E9A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8A65419-828D-4F6A-9296-C4E82D8EE21B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3719B7D0-626C-41D5-837D-B9DFC9DF9FED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A1E3A525-4691-4D6A-83C5-62BD49AAACC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AF072989-EE09-4D79-8D87-F56C7221F4D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DCA5AD2-EFB7-4157-B918-820A48CBD58A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFE71C08-C01F-466E-9101-E41FA5456BFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76A4A2EE-752D-435F-BA55-41338B9DA199}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1668F8EC-4719-4861-AC2E-3D754ED28727}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88D3C30E-DFD1-4DE0-8028-3C0F5F3CEF1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7132C5F6-153F-49FB-9E38-AE0491508204}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBCA6F70-2431-4D85-BB91-9F8421D15688}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0FE4C397-A2AD-4370-B48A-80092A5FC41E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B63E2EE-AC4B-422A-9864-7E6B8824D61E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4C14DDD9-FA0A-4B47-BCE1-28913481F676}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CEA40697-3095-4A3D-AA9F-05589F762628}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A98DDD02-753C-42DF-B1BF-59E531BA2DF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
